--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5280" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -569,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -616,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="3">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -662,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -771,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -818,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -864,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -973,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1020,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="3">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1066,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1175,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1222,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="3">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1268,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1377,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1424,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="3">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1470,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1579,10 +1597,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1626,28 +1644,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="3">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1672,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="3">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1781,10 +1799,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1828,28 +1846,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1874,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +2001,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2030,28 +2048,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2185,10 +2203,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2232,28 +2250,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2278,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2387,10 +2405,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2434,28 +2452,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2480,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2589,10 +2607,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="3" t="s">
+      <c r="J85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2636,28 +2654,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="3">
+      <c r="C87" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2682,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2791,10 +2809,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2838,28 +2856,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="3">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2884,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2993,10 +3011,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3040,28 +3058,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="3">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3086,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3195,10 +3213,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="3" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3242,28 +3260,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="3">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="3">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3288,28 +3306,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="3">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="3">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="3">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="3">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="3">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="3">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="3">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3397,10 +3415,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3444,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3490,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3599,10 +3617,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3646,28 +3664,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3692,28 +3710,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3819,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="3" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3866,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="3">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3912,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4021,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4050,28 +4068,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4223,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4270,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="3">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4316,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4436,10 +4454,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="3" t="s">
+      <c r="J149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4483,28 +4501,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="3">
+      <c r="C151" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4529,28 +4547,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4638,10 +4656,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="3" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4685,28 +4703,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="3">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="3">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="3">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="3">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="3">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="3">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4731,28 +4749,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="3">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="3">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="3">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4840,10 +4858,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="3" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4887,28 +4905,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="3">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="3">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4933,28 +4951,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="3">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="3">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="3">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5042,10 +5060,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="3" t="s">
+      <c r="J170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5089,28 +5107,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="3">
+      <c r="A172" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="3">
+      <c r="C172" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5135,28 +5153,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="3">
+      <c r="B174" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="3">
+      <c r="C174" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="3">
+      <c r="D174" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="3">
+      <c r="E174" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="3">
+      <c r="F174" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="3">
+      <c r="G174" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="3">
+      <c r="H174" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="3">
+      <c r="I174" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5262,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="3" t="s">
+      <c r="J177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5309,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="3">
+      <c r="C179" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5355,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5464,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="3" t="s">
+      <c r="J184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5493,28 +5511,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="3">
+      <c r="A186" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="3">
+      <c r="C186" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5557,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="3">
+      <c r="C188" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="3">
+      <c r="D188" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="3">
+      <c r="I188" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5677,10 +5695,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="3" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5724,28 +5742,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="3">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="3">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5770,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="3">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="3">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="3">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5879,10 +5897,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="3" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5926,28 +5944,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="3">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="3">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="3">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="3">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="3">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="3">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="3">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5972,28 +5990,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="3">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="3">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="3">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="3">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="3">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="3">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="3">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="3">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6081,10 +6099,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="3" t="s">
+      <c r="J206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6128,28 +6146,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="3">
+      <c r="A208" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="3">
+      <c r="B208" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="3">
+      <c r="C208" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="3">
+      <c r="E208" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="3">
+      <c r="F208" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="3">
+      <c r="G208" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="3">
+      <c r="H208" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6174,28 +6192,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="3">
+      <c r="B210" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="3">
+      <c r="C210" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="3">
+      <c r="D210" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="3">
+      <c r="E210" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="3">
+      <c r="F210" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="3">
+      <c r="G210" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="3">
+      <c r="H210" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="3">
+      <c r="I210" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6312,10 +6330,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="3" t="s">
+      <c r="J214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6359,28 +6377,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="3">
+      <c r="A216" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="3">
+      <c r="C216" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6405,28 +6423,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="3">
+      <c r="C218" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="3">
+      <c r="D218" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="3">
+      <c r="I218" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6514,10 +6532,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="3" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6561,28 +6579,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="3">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="3">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6607,28 +6625,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="3">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="3">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="3">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="3">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="3">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="3">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="3">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="3">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6716,10 +6734,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="3" t="s">
+      <c r="J228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6763,28 +6781,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="3">
+      <c r="A230" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="3">
+      <c r="C230" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6809,28 +6827,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="3">
+      <c r="C232" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="3">
+      <c r="D232" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="3">
+      <c r="I232" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6918,10 +6936,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="3" t="s">
+      <c r="J235" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6965,28 +6983,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="3">
+      <c r="A237" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="3">
+      <c r="B237" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="3">
+      <c r="C237" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="3">
+      <c r="E237" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="3">
+      <c r="F237" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="3">
+      <c r="G237" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="3">
+      <c r="H237" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7011,28 +7029,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="3">
+      <c r="C239" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="3">
+      <c r="D239" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="3">
+      <c r="I239" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7120,10 +7138,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="3" t="s">
+      <c r="J242" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7167,28 +7185,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="3">
+      <c r="A244" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="3">
+      <c r="C244" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7213,28 +7231,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="3">
+      <c r="B246" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="3">
+      <c r="C246" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="3">
+      <c r="D246" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="3">
+      <c r="E246" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="3">
+      <c r="F246" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="3">
+      <c r="G246" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="3">
+      <c r="H246" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="3">
+      <c r="I246" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7322,10 +7340,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="3" t="s">
+      <c r="J249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7369,28 +7387,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="3">
+      <c r="A251" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="3">
+      <c r="C251" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7415,28 +7433,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="3">
+      <c r="C253" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="3">
+      <c r="D253" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="3">
+      <c r="I253" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7553,10 +7571,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="3" t="s">
+      <c r="J257" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7600,28 +7618,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="3">
+      <c r="A259" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="3">
+      <c r="B259" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="3">
+      <c r="C259" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="3">
+      <c r="E259" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="3">
+      <c r="F259" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="3">
+      <c r="G259" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="3">
+      <c r="H259" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7646,28 +7664,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="3">
+      <c r="B261" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="3">
+      <c r="C261" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="3">
+      <c r="D261" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="3">
+      <c r="E261" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="3">
+      <c r="F261" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="3">
+      <c r="G261" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="3">
+      <c r="H261" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="3">
+      <c r="I261" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7755,10 +7773,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="3" t="s">
+      <c r="J264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7802,28 +7820,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="3">
+      <c r="A266" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="3">
+      <c r="C266" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7848,28 +7866,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="3">
+      <c r="B268" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="3">
+      <c r="C268" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="3">
+      <c r="D268" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="3">
+      <c r="E268" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="3">
+      <c r="F268" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="3">
+      <c r="G268" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="3">
+      <c r="H268" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="3">
+      <c r="I268" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7957,10 +7975,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="3" t="s">
+      <c r="J271" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8004,28 +8022,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="3">
+      <c r="A273" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="3">
+      <c r="B273" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="3">
+      <c r="C273" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="3">
+      <c r="E273" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="3">
+      <c r="F273" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="3">
+      <c r="G273" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="3">
+      <c r="H273" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8050,28 +8068,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="3">
+      <c r="B275" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="3">
+      <c r="C275" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="3">
+      <c r="D275" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="3">
+      <c r="E275" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="3">
+      <c r="F275" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="3">
+      <c r="G275" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="3">
+      <c r="H275" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="3">
+      <c r="I275" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8159,10 +8177,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="3" t="s">
+      <c r="J278" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8206,28 +8224,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="3">
+      <c r="A280" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="3">
+      <c r="B280" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="3">
+      <c r="C280" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="3">
+      <c r="E280" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="3">
+      <c r="F280" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="3">
+      <c r="G280" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="3">
+      <c r="H280" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8252,28 +8270,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="3">
+      <c r="B282" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="3">
+      <c r="C282" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="3">
+      <c r="D282" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="3">
+      <c r="E282" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="3">
+      <c r="F282" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="3">
+      <c r="G282" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="3">
+      <c r="H282" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="3">
+      <c r="I282" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8361,10 +8379,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="3" t="s">
+      <c r="J285" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8408,28 +8426,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="3">
+      <c r="A287" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="3">
+      <c r="B287" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="3">
+      <c r="C287" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="3">
+      <c r="E287" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="3">
+      <c r="F287" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="3">
+      <c r="G287" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="3">
+      <c r="H287" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8454,28 +8472,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="3">
+      <c r="B289" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="3">
+      <c r="C289" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="3">
+      <c r="D289" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="3">
+      <c r="E289" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="3">
+      <c r="F289" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="3">
+      <c r="G289" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="3">
+      <c r="H289" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="3">
+      <c r="I289" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8563,10 +8581,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="3" t="s">
+      <c r="J292" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8610,28 +8628,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="3">
+      <c r="A294" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="3">
+      <c r="B294" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="3">
+      <c r="C294" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="3">
+      <c r="E294" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="3">
+      <c r="F294" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="3">
+      <c r="G294" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="3">
+      <c r="H294" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8656,28 +8674,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="3">
+      <c r="B296" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="3">
+      <c r="C296" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="3">
+      <c r="D296" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="3">
+      <c r="E296" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="3">
+      <c r="F296" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="3">
+      <c r="G296" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="3">
+      <c r="H296" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="3">
+      <c r="I296" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8794,10 +8812,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="3" t="s">
+      <c r="J300" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8841,28 +8859,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="3">
+      <c r="A302" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="3">
+      <c r="B302" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="3">
+      <c r="C302" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="3">
+      <c r="E302" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="3">
+      <c r="F302" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="3">
+      <c r="G302" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="3">
+      <c r="H302" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8887,28 +8905,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="3">
+      <c r="B304" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="3">
+      <c r="C304" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="3">
+      <c r="D304" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="3">
+      <c r="E304" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="3">
+      <c r="F304" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="3">
+      <c r="G304" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="3">
+      <c r="H304" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="3">
+      <c r="I304" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9025,10 +9043,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="3" t="s">
+      <c r="J308" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9072,28 +9090,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="3">
+      <c r="A310" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="3">
+      <c r="B310" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="3">
+      <c r="C310" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="3">
+      <c r="E310" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="3">
+      <c r="F310" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="3">
+      <c r="G310" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="3">
+      <c r="H310" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9118,28 +9136,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="3">
+      <c r="B312" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="3">
+      <c r="C312" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="3">
+      <c r="D312" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="3">
+      <c r="E312" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="3">
+      <c r="F312" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="3">
+      <c r="G312" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="3">
+      <c r="H312" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="3">
+      <c r="I312" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9227,10 +9245,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="3" t="s">
+      <c r="J315" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9274,28 +9292,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="3">
+      <c r="A317" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="3">
+      <c r="B317" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="3">
+      <c r="C317" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="3">
+      <c r="E317" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="3">
+      <c r="F317" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="3">
+      <c r="G317" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="3">
+      <c r="H317" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9320,28 +9338,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="3">
+      <c r="B319" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="3">
+      <c r="C319" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="3">
+      <c r="D319" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="3">
+      <c r="E319" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="3">
+      <c r="F319" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="3">
+      <c r="G319" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="3">
+      <c r="H319" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="3">
+      <c r="I319" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9429,10 +9447,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="3" t="s">
+      <c r="J322" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9476,28 +9494,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="3">
+      <c r="A324" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="3">
+      <c r="B324" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="3">
+      <c r="C324" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="3">
+      <c r="E324" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="3">
+      <c r="F324" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="3">
+      <c r="G324" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="3">
+      <c r="H324" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9522,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="3">
+      <c r="B326" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="3">
+      <c r="C326" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="3">
+      <c r="D326" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="3">
+      <c r="E326" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="3">
+      <c r="F326" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="3">
+      <c r="G326" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="3">
+      <c r="H326" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="3">
+      <c r="I326" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9602,10 +9620,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="3" t="s">
+      <c r="J328" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9649,28 +9667,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="3">
+      <c r="A330" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="3">
+      <c r="B330" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="3">
+      <c r="C330" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="3">
+      <c r="E330" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="3">
+      <c r="F330" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="3">
+      <c r="G330" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="3">
+      <c r="H330" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9695,28 +9713,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="3">
+      <c r="B332" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="3">
+      <c r="C332" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="3">
+      <c r="D332" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="3">
+      <c r="E332" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="3">
+      <c r="F332" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="3">
+      <c r="G332" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="3">
+      <c r="H332" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="3">
+      <c r="I332" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9804,10 +9822,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="3" t="s">
+      <c r="J335" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9851,28 +9869,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="3">
+      <c r="A337" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="3">
+      <c r="B337" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="3">
+      <c r="C337" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="3">
+      <c r="E337" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="3">
+      <c r="F337" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="3">
+      <c r="G337" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="3">
+      <c r="H337" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9897,28 +9915,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="3">
+      <c r="B339" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="3">
+      <c r="C339" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="3">
+      <c r="D339" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="3">
+      <c r="E339" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="3">
+      <c r="F339" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="3">
+      <c r="G339" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="3">
+      <c r="H339" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="3">
+      <c r="I339" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9977,10 +9995,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="3" t="s">
+      <c r="J341" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5280" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12320" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -153,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -161,6 +201,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -183,26 +231,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true">
-      <c r="A1" t="s" s="6">
+    <row r="1" s="14" customFormat="true">
+      <c r="A1" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" t="s" s="14">
         <v>7</v>
       </c>
     </row>
@@ -230,28 +278,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -276,28 +324,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="6">
+      <c r="I5" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -385,10 +433,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -432,28 +480,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="6">
+      <c r="C10" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="6">
+      <c r="E10" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="6">
+      <c r="G10" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="6">
+      <c r="H10" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="6">
+      <c r="C12" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="6">
+      <c r="D12" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="6">
+      <c r="G12" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="6">
+      <c r="H12" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="6">
+      <c r="I12" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -587,10 +635,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -634,28 +682,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="6">
+      <c r="C17" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="6">
+      <c r="E17" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="6">
+      <c r="F17" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="6">
+      <c r="G17" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="6">
+      <c r="H17" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="6">
+      <c r="C19" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="6">
+      <c r="D19" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="6">
+      <c r="E19" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="6">
+      <c r="F19" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="6">
+      <c r="G19" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="6">
+      <c r="H19" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="6">
+      <c r="I19" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -789,10 +837,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -836,28 +884,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="6">
+      <c r="A24" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="6">
+      <c r="C24" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="6">
+      <c r="E24" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="6">
+      <c r="F24" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="6">
+      <c r="G24" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="6">
+      <c r="H24" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="6">
+      <c r="B26" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="6">
+      <c r="C26" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="6">
+      <c r="D26" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="6">
+      <c r="E26" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="6">
+      <c r="F26" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="6">
+      <c r="G26" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="6">
+      <c r="H26" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="6">
+      <c r="I26" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -991,10 +1039,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="J29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1038,28 +1086,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="6">
+      <c r="A31" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="6">
+      <c r="B31" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="6">
+      <c r="C31" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="6">
+      <c r="E31" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="6">
+      <c r="F31" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="6">
+      <c r="G31" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="6">
+      <c r="H31" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1084,28 +1132,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="6">
+      <c r="B33" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="6">
+      <c r="C33" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="6">
+      <c r="D33" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="6">
+      <c r="E33" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="6">
+      <c r="F33" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="6">
+      <c r="G33" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="6">
+      <c r="H33" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="6">
+      <c r="I33" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1193,10 +1241,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="J36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1240,28 +1288,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="6">
+      <c r="A38" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="6">
+      <c r="B38" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="6">
+      <c r="C38" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="6">
+      <c r="E38" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="6">
+      <c r="F38" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="6">
+      <c r="G38" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="6">
+      <c r="H38" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1286,28 +1334,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="6">
+      <c r="B40" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="6">
+      <c r="C40" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="6">
+      <c r="D40" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="6">
+      <c r="E40" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="6">
+      <c r="F40" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="6">
+      <c r="G40" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="6">
+      <c r="H40" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="6">
+      <c r="I40" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1395,10 +1443,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="J43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1442,28 +1490,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="6">
+      <c r="A45" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="6">
+      <c r="B45" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="6">
+      <c r="C45" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="6">
+      <c r="E45" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="6">
+      <c r="F45" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="6">
+      <c r="G45" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="6">
+      <c r="H45" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1488,28 +1536,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="6">
+      <c r="B47" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="6">
+      <c r="C47" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="6">
+      <c r="D47" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="6">
+      <c r="E47" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="6">
+      <c r="F47" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="6">
+      <c r="G47" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="6">
+      <c r="H47" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="6">
+      <c r="I47" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1597,10 +1645,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="6" t="s">
+      <c r="J50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1644,28 +1692,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="6">
+      <c r="A52" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="6">
+      <c r="B52" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="6">
+      <c r="C52" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="6">
+      <c r="E52" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="6">
+      <c r="F52" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="6">
+      <c r="G52" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="6">
+      <c r="H52" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1690,28 +1738,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="6">
+      <c r="B54" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="6">
+      <c r="C54" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="6">
+      <c r="D54" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="6">
+      <c r="E54" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="6">
+      <c r="F54" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="6">
+      <c r="G54" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="6">
+      <c r="H54" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="6">
+      <c r="I54" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1799,10 +1847,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="6" t="s">
+      <c r="J57" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1846,28 +1894,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="6">
+      <c r="A59" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="6">
+      <c r="B59" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="6">
+      <c r="C59" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="6">
+      <c r="E59" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="6">
+      <c r="F59" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="6">
+      <c r="G59" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="6">
+      <c r="H59" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1892,28 +1940,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="6">
+      <c r="B61" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="6">
+      <c r="C61" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="6">
+      <c r="D61" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="6">
+      <c r="E61" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="6">
+      <c r="F61" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="6">
+      <c r="G61" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="6">
+      <c r="H61" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="6">
+      <c r="I61" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2001,10 +2049,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="6" t="s">
+      <c r="J64" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2048,28 +2096,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="6">
+      <c r="A66" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="6">
+      <c r="B66" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="6">
+      <c r="C66" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="6">
+      <c r="E66" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="6">
+      <c r="F66" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="6">
+      <c r="G66" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="6">
+      <c r="H66" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2094,28 +2142,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="6">
+      <c r="B68" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="6">
+      <c r="C68" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="6">
+      <c r="D68" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="6">
+      <c r="E68" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="6">
+      <c r="F68" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="6">
+      <c r="G68" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="6">
+      <c r="H68" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="6">
+      <c r="I68" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2203,10 +2251,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="6" t="s">
+      <c r="J71" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2250,28 +2298,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="6">
+      <c r="A73" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="6">
+      <c r="B73" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="6">
+      <c r="C73" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="6">
+      <c r="E73" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="6">
+      <c r="F73" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="6">
+      <c r="G73" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="6">
+      <c r="H73" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2296,28 +2344,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="6">
+      <c r="B75" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="6">
+      <c r="C75" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="6">
+      <c r="D75" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="6">
+      <c r="E75" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="6">
+      <c r="F75" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="6">
+      <c r="G75" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="6">
+      <c r="H75" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="6">
+      <c r="I75" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2405,10 +2453,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="6" t="s">
+      <c r="J78" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2452,28 +2500,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="6">
+      <c r="A80" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="6">
+      <c r="B80" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="6">
+      <c r="C80" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="6">
+      <c r="E80" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="6">
+      <c r="F80" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="6">
+      <c r="G80" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="6">
+      <c r="H80" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2498,28 +2546,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="6">
+      <c r="B82" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="6">
+      <c r="C82" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="6">
+      <c r="D82" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="6">
+      <c r="E82" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="6">
+      <c r="F82" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="6">
+      <c r="G82" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="6">
+      <c r="H82" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="6">
+      <c r="I82" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2607,10 +2655,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="6" t="s">
+      <c r="J85" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2654,28 +2702,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="6">
+      <c r="A87" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="6">
+      <c r="B87" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="6">
+      <c r="C87" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="6">
+      <c r="E87" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="6">
+      <c r="F87" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="6">
+      <c r="G87" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="6">
+      <c r="H87" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2700,28 +2748,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="6">
+      <c r="B89" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="6">
+      <c r="C89" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="6">
+      <c r="D89" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="6">
+      <c r="E89" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="6">
+      <c r="F89" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="6">
+      <c r="G89" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="6">
+      <c r="H89" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="6">
+      <c r="I89" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2809,10 +2857,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="6" t="s">
+      <c r="J92" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2856,28 +2904,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="6">
+      <c r="A94" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="6">
+      <c r="B94" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="6">
+      <c r="C94" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="6">
+      <c r="E94" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="6">
+      <c r="F94" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="6">
+      <c r="G94" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="6">
+      <c r="H94" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2902,28 +2950,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="6">
+      <c r="B96" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="6">
+      <c r="C96" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="6">
+      <c r="D96" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="6">
+      <c r="E96" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="6">
+      <c r="F96" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="6">
+      <c r="G96" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="6">
+      <c r="H96" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="6">
+      <c r="I96" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3011,10 +3059,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="6" t="s">
+      <c r="J99" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3058,28 +3106,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="6">
+      <c r="A101" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="6">
+      <c r="B101" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="6">
+      <c r="C101" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="6">
+      <c r="E101" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="6">
+      <c r="F101" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="6">
+      <c r="G101" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="6">
+      <c r="H101" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3104,28 +3152,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="6">
+      <c r="B103" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="6">
+      <c r="C103" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="6">
+      <c r="D103" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="6">
+      <c r="E103" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="6">
+      <c r="F103" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="6">
+      <c r="G103" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="6">
+      <c r="H103" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="6">
+      <c r="I103" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3213,10 +3261,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="6" t="s">
+      <c r="J106" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3260,28 +3308,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="6">
+      <c r="A108" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="6">
+      <c r="B108" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="6">
+      <c r="C108" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="6">
+      <c r="E108" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="6">
+      <c r="F108" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="6">
+      <c r="G108" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="6">
+      <c r="H108" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3306,28 +3354,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="6">
+      <c r="B110" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="6">
+      <c r="C110" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="6">
+      <c r="D110" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="6">
+      <c r="E110" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="6">
+      <c r="F110" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="6">
+      <c r="G110" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="6">
+      <c r="H110" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="6">
+      <c r="I110" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3415,10 +3463,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="6" t="s">
+      <c r="J113" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3462,28 +3510,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="6">
+      <c r="A115" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="6">
+      <c r="B115" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="6">
+      <c r="C115" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="6">
+      <c r="E115" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="6">
+      <c r="F115" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="6">
+      <c r="G115" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="6">
+      <c r="H115" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3508,28 +3556,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="6">
+      <c r="B117" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="6">
+      <c r="C117" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="6">
+      <c r="D117" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="6">
+      <c r="E117" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="6">
+      <c r="F117" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="6">
+      <c r="G117" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="6">
+      <c r="H117" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="6">
+      <c r="I117" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3617,10 +3665,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="6" t="s">
+      <c r="J120" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3664,28 +3712,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="6">
+      <c r="A122" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="6">
+      <c r="B122" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="6">
+      <c r="C122" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="6">
+      <c r="E122" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="6">
+      <c r="F122" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="6">
+      <c r="G122" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="6">
+      <c r="H122" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3710,28 +3758,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="6">
+      <c r="B124" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="6">
+      <c r="C124" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="6">
+      <c r="D124" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="6">
+      <c r="E124" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="6">
+      <c r="F124" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="6">
+      <c r="G124" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="6">
+      <c r="H124" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="6">
+      <c r="I124" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3819,10 +3867,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="6" t="s">
+      <c r="J127" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3866,28 +3914,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="6">
+      <c r="A129" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="6">
+      <c r="B129" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="6">
+      <c r="C129" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="6">
+      <c r="E129" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="6">
+      <c r="F129" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="6">
+      <c r="G129" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="6">
+      <c r="H129" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3912,28 +3960,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="6">
+      <c r="B131" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="6">
+      <c r="C131" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="6">
+      <c r="D131" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="6">
+      <c r="E131" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="6">
+      <c r="F131" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="6">
+      <c r="G131" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="6">
+      <c r="H131" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="6">
+      <c r="I131" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4021,10 +4069,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="6" t="s">
+      <c r="J134" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4068,28 +4116,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="6">
+      <c r="A136" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="6">
+      <c r="B136" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="6">
+      <c r="C136" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="6">
+      <c r="E136" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="6">
+      <c r="F136" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="6">
+      <c r="G136" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="6">
+      <c r="H136" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4114,28 +4162,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="6">
+      <c r="B138" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="6">
+      <c r="C138" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="6">
+      <c r="D138" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="6">
+      <c r="E138" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="6">
+      <c r="F138" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="6">
+      <c r="G138" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="6">
+      <c r="H138" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="6">
+      <c r="I138" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4223,10 +4271,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="6" t="s">
+      <c r="J141" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4270,28 +4318,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="6">
+      <c r="A143" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="6">
+      <c r="B143" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="6">
+      <c r="C143" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="6">
+      <c r="E143" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="6">
+      <c r="F143" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="6">
+      <c r="G143" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="6">
+      <c r="H143" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4316,28 +4364,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="6">
+      <c r="B145" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="6">
+      <c r="C145" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="6">
+      <c r="D145" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="6">
+      <c r="E145" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="6">
+      <c r="F145" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="6">
+      <c r="G145" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="6">
+      <c r="H145" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="6">
+      <c r="I145" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4454,10 +4502,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="6" t="s">
+      <c r="J149" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4501,28 +4549,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="6">
+      <c r="A151" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="6">
+      <c r="B151" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="6">
+      <c r="C151" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="6">
+      <c r="E151" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="6">
+      <c r="F151" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="6">
+      <c r="G151" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="6">
+      <c r="H151" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4547,28 +4595,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="6">
+      <c r="B153" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="6">
+      <c r="C153" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="6">
+      <c r="D153" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="6">
+      <c r="E153" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="6">
+      <c r="F153" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="6">
+      <c r="G153" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="6">
+      <c r="H153" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="6">
+      <c r="I153" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4656,10 +4704,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="6" t="s">
+      <c r="J156" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4703,28 +4751,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="6">
+      <c r="A158" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="6">
+      <c r="B158" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="6">
+      <c r="C158" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="6">
+      <c r="E158" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="6">
+      <c r="F158" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="6">
+      <c r="G158" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="6">
+      <c r="H158" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4749,28 +4797,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="6">
+      <c r="B160" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="6">
+      <c r="C160" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="6">
+      <c r="D160" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="6">
+      <c r="E160" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="6">
+      <c r="F160" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="6">
+      <c r="G160" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="6">
+      <c r="H160" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="6">
+      <c r="I160" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4858,10 +4906,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="6" t="s">
+      <c r="J163" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4905,28 +4953,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="6">
+      <c r="A165" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="6">
+      <c r="B165" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="6">
+      <c r="C165" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="6">
+      <c r="E165" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="6">
+      <c r="F165" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="6">
+      <c r="G165" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="6">
+      <c r="H165" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4951,28 +4999,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="6">
+      <c r="B167" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="6">
+      <c r="C167" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="6">
+      <c r="D167" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="6">
+      <c r="E167" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="6">
+      <c r="F167" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="6">
+      <c r="G167" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="6">
+      <c r="H167" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="6">
+      <c r="I167" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5060,10 +5108,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="6" t="s">
+      <c r="J170" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5107,28 +5155,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="6">
+      <c r="A172" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="6">
+      <c r="B172" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="6">
+      <c r="C172" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="6">
+      <c r="E172" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="6">
+      <c r="F172" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="6">
+      <c r="G172" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="6">
+      <c r="H172" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5153,28 +5201,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="6">
+      <c r="B174" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="6">
+      <c r="C174" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="6">
+      <c r="D174" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="6">
+      <c r="E174" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="6">
+      <c r="F174" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="6">
+      <c r="G174" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="6">
+      <c r="H174" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="6">
+      <c r="I174" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5262,10 +5310,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="6" t="s">
+      <c r="J177" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5309,28 +5357,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="6">
+      <c r="A179" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="6">
+      <c r="B179" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="6">
+      <c r="C179" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="6">
+      <c r="E179" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="6">
+      <c r="F179" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="6">
+      <c r="G179" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="6">
+      <c r="H179" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5355,28 +5403,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="6">
+      <c r="B181" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="6">
+      <c r="C181" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="6">
+      <c r="D181" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="6">
+      <c r="E181" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="6">
+      <c r="F181" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="6">
+      <c r="G181" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="6">
+      <c r="H181" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="6">
+      <c r="I181" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5464,10 +5512,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="6" t="s">
+      <c r="J184" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5511,28 +5559,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="6">
+      <c r="A186" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="6">
+      <c r="B186" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="6">
+      <c r="C186" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="6">
+      <c r="E186" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="6">
+      <c r="F186" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="6">
+      <c r="G186" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="6">
+      <c r="H186" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5557,28 +5605,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="6">
+      <c r="B188" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="6">
+      <c r="C188" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="6">
+      <c r="D188" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="6">
+      <c r="E188" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="6">
+      <c r="F188" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="6">
+      <c r="G188" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="6">
+      <c r="H188" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="6">
+      <c r="I188" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5695,10 +5743,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="6" t="s">
+      <c r="J192" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5742,28 +5790,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="6">
+      <c r="A194" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="6">
+      <c r="B194" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="6">
+      <c r="C194" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="6">
+      <c r="E194" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="6">
+      <c r="F194" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="6">
+      <c r="G194" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="6">
+      <c r="H194" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5788,28 +5836,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="6">
+      <c r="B196" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="6">
+      <c r="C196" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="6">
+      <c r="D196" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="6">
+      <c r="E196" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="6">
+      <c r="F196" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="6">
+      <c r="G196" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="6">
+      <c r="H196" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="6">
+      <c r="I196" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5897,10 +5945,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="6" t="s">
+      <c r="J199" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5944,28 +5992,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="6">
+      <c r="A201" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="6">
+      <c r="B201" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="6">
+      <c r="C201" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="6">
+      <c r="E201" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="6">
+      <c r="F201" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="6">
+      <c r="G201" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="6">
+      <c r="H201" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5990,28 +6038,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="6">
+      <c r="B203" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="6">
+      <c r="C203" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="6">
+      <c r="D203" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="6">
+      <c r="E203" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="6">
+      <c r="F203" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="6">
+      <c r="G203" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="6">
+      <c r="H203" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="6">
+      <c r="I203" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6099,10 +6147,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="6" t="s">
+      <c r="J206" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6146,28 +6194,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="6">
+      <c r="A208" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="6">
+      <c r="B208" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="6">
+      <c r="C208" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="6">
+      <c r="E208" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="6">
+      <c r="F208" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="6">
+      <c r="G208" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="6">
+      <c r="H208" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6192,28 +6240,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="6">
+      <c r="B210" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="6">
+      <c r="C210" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="6">
+      <c r="D210" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="6">
+      <c r="E210" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="6">
+      <c r="F210" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="6">
+      <c r="G210" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="6">
+      <c r="H210" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="6">
+      <c r="I210" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6330,10 +6378,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="6" t="s">
+      <c r="J214" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6377,28 +6425,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="6">
+      <c r="A216" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="6">
+      <c r="B216" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="6">
+      <c r="C216" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="6">
+      <c r="E216" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="6">
+      <c r="F216" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="6">
+      <c r="G216" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="6">
+      <c r="H216" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6423,28 +6471,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="6">
+      <c r="B218" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="6">
+      <c r="C218" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="6">
+      <c r="D218" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="6">
+      <c r="E218" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="6">
+      <c r="F218" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="6">
+      <c r="G218" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="6">
+      <c r="H218" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="6">
+      <c r="I218" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6532,10 +6580,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="6" t="s">
+      <c r="J221" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6579,28 +6627,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="6">
+      <c r="A223" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="6">
+      <c r="B223" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="6">
+      <c r="C223" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="6">
+      <c r="E223" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="6">
+      <c r="F223" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="6">
+      <c r="G223" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="6">
+      <c r="H223" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6625,28 +6673,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="6">
+      <c r="B225" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="6">
+      <c r="C225" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="6">
+      <c r="D225" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="6">
+      <c r="E225" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="6">
+      <c r="F225" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="6">
+      <c r="G225" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="6">
+      <c r="H225" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="6">
+      <c r="I225" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6734,10 +6782,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="6" t="s">
+      <c r="J228" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6781,28 +6829,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="6">
+      <c r="A230" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="6">
+      <c r="B230" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="6">
+      <c r="C230" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="6">
+      <c r="E230" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="6">
+      <c r="F230" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="6">
+      <c r="G230" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="6">
+      <c r="H230" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6827,28 +6875,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="6">
+      <c r="B232" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="6">
+      <c r="C232" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="6">
+      <c r="D232" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="6">
+      <c r="E232" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="6">
+      <c r="F232" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="6">
+      <c r="G232" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="6">
+      <c r="H232" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="6">
+      <c r="I232" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6936,10 +6984,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="6" t="s">
+      <c r="J235" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6983,28 +7031,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="6">
+      <c r="A237" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="6">
+      <c r="B237" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="6">
+      <c r="C237" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="6">
+      <c r="E237" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="6">
+      <c r="F237" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="6">
+      <c r="G237" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="6">
+      <c r="H237" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7029,28 +7077,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="6">
+      <c r="B239" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="6">
+      <c r="C239" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="6">
+      <c r="D239" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="6">
+      <c r="E239" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="6">
+      <c r="F239" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="6">
+      <c r="G239" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="6">
+      <c r="H239" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="6">
+      <c r="I239" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7138,10 +7186,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="6" t="s">
+      <c r="J242" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7185,28 +7233,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="6">
+      <c r="A244" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="6">
+      <c r="B244" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="6">
+      <c r="C244" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="6">
+      <c r="E244" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="6">
+      <c r="F244" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="6">
+      <c r="G244" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="6">
+      <c r="H244" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7231,28 +7279,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="6">
+      <c r="B246" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="6">
+      <c r="C246" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="6">
+      <c r="D246" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="6">
+      <c r="E246" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="6">
+      <c r="F246" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="6">
+      <c r="G246" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="6">
+      <c r="H246" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="6">
+      <c r="I246" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7340,10 +7388,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="6" t="s">
+      <c r="J249" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7387,28 +7435,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="6">
+      <c r="A251" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="6">
+      <c r="B251" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="6">
+      <c r="C251" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="6">
+      <c r="E251" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="6">
+      <c r="F251" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="6">
+      <c r="G251" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="6">
+      <c r="H251" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7433,28 +7481,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="6">
+      <c r="B253" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="6">
+      <c r="C253" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="6">
+      <c r="D253" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="6">
+      <c r="E253" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="6">
+      <c r="F253" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="6">
+      <c r="G253" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="6">
+      <c r="H253" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="6">
+      <c r="I253" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7571,10 +7619,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="6" t="s">
+      <c r="J257" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7618,28 +7666,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="6">
+      <c r="A259" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="6">
+      <c r="B259" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="6">
+      <c r="C259" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="6">
+      <c r="E259" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="6">
+      <c r="F259" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="6">
+      <c r="G259" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="6">
+      <c r="H259" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7664,28 +7712,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="6">
+      <c r="B261" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="6">
+      <c r="C261" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="6">
+      <c r="D261" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="6">
+      <c r="E261" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="6">
+      <c r="F261" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="6">
+      <c r="G261" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="6">
+      <c r="H261" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="6">
+      <c r="I261" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7773,10 +7821,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="6" t="s">
+      <c r="J264" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7820,28 +7868,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="6">
+      <c r="A266" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="6">
+      <c r="B266" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="6">
+      <c r="C266" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="6">
+      <c r="E266" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="6">
+      <c r="F266" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="6">
+      <c r="G266" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="6">
+      <c r="H266" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7866,28 +7914,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="6">
+      <c r="B268" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="6">
+      <c r="C268" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="6">
+      <c r="D268" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="6">
+      <c r="E268" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="6">
+      <c r="F268" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="6">
+      <c r="G268" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="6">
+      <c r="H268" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="6">
+      <c r="I268" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7975,10 +8023,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="6" t="s">
+      <c r="J271" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8022,28 +8070,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="6">
+      <c r="A273" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="6">
+      <c r="B273" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="6">
+      <c r="C273" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="6">
+      <c r="E273" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="6">
+      <c r="F273" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="6">
+      <c r="G273" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="6">
+      <c r="H273" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8068,28 +8116,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="6">
+      <c r="B275" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="6">
+      <c r="C275" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="6">
+      <c r="D275" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="6">
+      <c r="E275" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="6">
+      <c r="F275" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="6">
+      <c r="G275" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="6">
+      <c r="H275" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="6">
+      <c r="I275" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8177,10 +8225,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="6" t="s">
+      <c r="J278" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8224,28 +8272,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="6">
+      <c r="A280" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="6">
+      <c r="B280" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="6">
+      <c r="C280" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="6">
+      <c r="E280" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="6">
+      <c r="F280" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="6">
+      <c r="G280" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="6">
+      <c r="H280" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8270,28 +8318,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="6">
+      <c r="B282" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="6">
+      <c r="C282" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="6">
+      <c r="D282" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="6">
+      <c r="E282" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="6">
+      <c r="F282" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="6">
+      <c r="G282" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="6">
+      <c r="H282" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="6">
+      <c r="I282" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8379,10 +8427,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="6" t="s">
+      <c r="J285" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8426,28 +8474,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="6">
+      <c r="A287" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="6">
+      <c r="B287" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="6">
+      <c r="C287" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="6">
+      <c r="E287" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="6">
+      <c r="F287" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="6">
+      <c r="G287" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="6">
+      <c r="H287" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8472,28 +8520,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="6">
+      <c r="B289" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="6">
+      <c r="C289" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="6">
+      <c r="D289" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="6">
+      <c r="E289" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="6">
+      <c r="F289" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="6">
+      <c r="G289" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="6">
+      <c r="H289" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="6">
+      <c r="I289" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8581,10 +8629,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="6" t="s">
+      <c r="J292" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8628,28 +8676,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="6">
+      <c r="A294" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="6">
+      <c r="B294" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="6">
+      <c r="C294" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="6">
+      <c r="E294" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="6">
+      <c r="F294" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="6">
+      <c r="G294" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="6">
+      <c r="H294" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8674,28 +8722,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="6">
+      <c r="B296" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="6">
+      <c r="C296" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="6">
+      <c r="D296" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="6">
+      <c r="E296" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="6">
+      <c r="F296" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="6">
+      <c r="G296" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="6">
+      <c r="H296" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="6">
+      <c r="I296" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8812,10 +8860,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="6" t="s">
+      <c r="J300" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8859,28 +8907,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="6">
+      <c r="A302" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="6">
+      <c r="B302" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="6">
+      <c r="C302" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="6">
+      <c r="E302" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="6">
+      <c r="F302" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="6">
+      <c r="G302" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="6">
+      <c r="H302" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8905,28 +8953,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="6">
+      <c r="B304" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="6">
+      <c r="C304" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="6">
+      <c r="D304" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="6">
+      <c r="E304" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="6">
+      <c r="F304" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="6">
+      <c r="G304" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="6">
+      <c r="H304" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="6">
+      <c r="I304" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9043,10 +9091,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="6" t="s">
+      <c r="J308" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9090,28 +9138,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="6">
+      <c r="A310" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="6">
+      <c r="B310" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="6">
+      <c r="C310" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="6">
+      <c r="E310" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="6">
+      <c r="F310" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="6">
+      <c r="G310" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="6">
+      <c r="H310" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9136,28 +9184,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="6">
+      <c r="B312" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="6">
+      <c r="C312" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="6">
+      <c r="D312" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="6">
+      <c r="E312" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="6">
+      <c r="F312" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="6">
+      <c r="G312" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="6">
+      <c r="H312" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="6">
+      <c r="I312" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9245,10 +9293,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="6" t="s">
+      <c r="J315" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9292,28 +9340,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="6">
+      <c r="A317" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="6">
+      <c r="B317" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="6">
+      <c r="C317" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="6">
+      <c r="E317" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="6">
+      <c r="F317" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="6">
+      <c r="G317" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="6">
+      <c r="H317" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9338,28 +9386,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="6">
+      <c r="B319" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="6">
+      <c r="C319" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="6">
+      <c r="D319" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="6">
+      <c r="E319" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="6">
+      <c r="F319" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="6">
+      <c r="G319" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="6">
+      <c r="H319" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="6">
+      <c r="I319" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9447,10 +9495,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="6" t="s">
+      <c r="J322" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9494,28 +9542,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="6">
+      <c r="A324" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="6">
+      <c r="B324" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="6">
+      <c r="C324" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="6">
+      <c r="E324" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="6">
+      <c r="F324" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="6">
+      <c r="G324" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="6">
+      <c r="H324" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9540,28 +9588,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="6">
+      <c r="B326" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="6">
+      <c r="C326" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="6">
+      <c r="D326" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="6">
+      <c r="E326" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="6">
+      <c r="F326" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="6">
+      <c r="G326" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="6">
+      <c r="H326" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="6">
+      <c r="I326" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9620,10 +9668,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="6" t="s">
+      <c r="J328" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9667,28 +9715,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="6">
+      <c r="A330" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="6">
+      <c r="B330" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="6">
+      <c r="C330" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="6">
+      <c r="E330" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="6">
+      <c r="F330" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="6">
+      <c r="G330" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="6">
+      <c r="H330" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9713,28 +9761,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="6">
+      <c r="B332" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="6">
+      <c r="C332" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="6">
+      <c r="D332" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="6">
+      <c r="E332" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="6">
+      <c r="F332" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="6">
+      <c r="G332" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="6">
+      <c r="H332" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="6">
+      <c r="I332" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9822,10 +9870,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="6" t="s">
+      <c r="J335" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9869,28 +9917,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="6">
+      <c r="A337" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="6">
+      <c r="B337" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="6">
+      <c r="C337" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="6">
+      <c r="E337" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="6">
+      <c r="F337" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="6">
+      <c r="G337" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="6">
+      <c r="H337" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9915,28 +9963,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="6">
+      <c r="B339" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="6">
+      <c r="C339" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="6">
+      <c r="D339" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="6">
+      <c r="E339" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="6">
+      <c r="F339" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="6">
+      <c r="G339" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="6">
+      <c r="H339" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="6">
+      <c r="I339" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9995,10 +10043,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="6" t="s">
+      <c r="J341" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12320" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -193,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -209,6 +234,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -231,26 +261,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true">
-      <c r="A1" t="s" s="14">
+    <row r="1" s="19" customFormat="true">
+      <c r="A1" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" t="s" s="19">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" t="s" s="19">
         <v>7</v>
       </c>
     </row>
@@ -278,28 +308,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -324,28 +354,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -433,10 +463,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -480,28 +510,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="14">
+      <c r="A10" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="14">
+      <c r="B10" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="14">
+      <c r="C10" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="14">
+      <c r="E10" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="14">
+      <c r="F10" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="14">
+      <c r="G10" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="14">
+      <c r="H10" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -526,28 +556,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="14">
+      <c r="B12" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="14">
+      <c r="C12" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="14">
+      <c r="D12" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="14">
+      <c r="E12" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="14">
+      <c r="F12" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="14">
+      <c r="G12" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="14">
+      <c r="H12" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="14">
+      <c r="I12" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -635,10 +665,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -682,28 +712,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="14">
+      <c r="A17" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="14">
+      <c r="B17" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="14">
+      <c r="C17" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="14">
+      <c r="E17" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="14">
+      <c r="F17" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="14">
+      <c r="G17" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="14">
+      <c r="H17" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -728,28 +758,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="14">
+      <c r="B19" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="14">
+      <c r="C19" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="14">
+      <c r="D19" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="14">
+      <c r="E19" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="14">
+      <c r="F19" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="14">
+      <c r="G19" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="14">
+      <c r="H19" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="14">
+      <c r="I19" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -837,10 +867,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="14" t="s">
+      <c r="J22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -884,28 +914,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="14">
+      <c r="A24" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="14">
+      <c r="B24" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="14">
+      <c r="C24" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="14">
+      <c r="E24" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="14">
+      <c r="F24" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="14">
+      <c r="G24" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="14">
+      <c r="H24" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -930,28 +960,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="14">
+      <c r="B26" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="14">
+      <c r="C26" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="14">
+      <c r="D26" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="14">
+      <c r="E26" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="14">
+      <c r="F26" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="14">
+      <c r="G26" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="14">
+      <c r="H26" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="14">
+      <c r="I26" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1039,10 +1069,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="J29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1086,28 +1116,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="14">
+      <c r="A31" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="14">
+      <c r="B31" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="14">
+      <c r="C31" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="14">
+      <c r="E31" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="14">
+      <c r="F31" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="14">
+      <c r="G31" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="14">
+      <c r="H31" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1132,28 +1162,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="14">
+      <c r="B33" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="14">
+      <c r="C33" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="14">
+      <c r="D33" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="14">
+      <c r="E33" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="14">
+      <c r="F33" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="14">
+      <c r="G33" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="14">
+      <c r="H33" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="14">
+      <c r="I33" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1241,10 +1271,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="14" t="s">
+      <c r="J36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1288,28 +1318,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="14">
+      <c r="A38" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="14">
+      <c r="B38" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="14">
+      <c r="C38" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="14">
+      <c r="E38" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="14">
+      <c r="F38" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="14">
+      <c r="G38" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="14">
+      <c r="H38" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1334,28 +1364,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="14">
+      <c r="B40" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="14">
+      <c r="C40" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="14">
+      <c r="D40" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="14">
+      <c r="E40" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="14">
+      <c r="F40" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="14">
+      <c r="G40" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="14">
+      <c r="H40" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="14">
+      <c r="I40" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1443,10 +1473,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="14" t="s">
+      <c r="J43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1490,28 +1520,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="14">
+      <c r="A45" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="14">
+      <c r="B45" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="14">
+      <c r="C45" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="14">
+      <c r="E45" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="14">
+      <c r="F45" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="14">
+      <c r="G45" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="14">
+      <c r="H45" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1536,28 +1566,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="14">
+      <c r="B47" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="14">
+      <c r="C47" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="14">
+      <c r="D47" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="14">
+      <c r="E47" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="14">
+      <c r="F47" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="14">
+      <c r="G47" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="14">
+      <c r="H47" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="14">
+      <c r="I47" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1645,10 +1675,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="14" t="s">
+      <c r="J50" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1692,28 +1722,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="14">
+      <c r="A52" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="14">
+      <c r="B52" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="14">
+      <c r="C52" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="14">
+      <c r="E52" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="14">
+      <c r="F52" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="14">
+      <c r="G52" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="14">
+      <c r="H52" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1738,28 +1768,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="14">
+      <c r="B54" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="14">
+      <c r="C54" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="14">
+      <c r="D54" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="14">
+      <c r="E54" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="14">
+      <c r="F54" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="14">
+      <c r="G54" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="14">
+      <c r="H54" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="14">
+      <c r="I54" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1847,10 +1877,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="14" t="s">
+      <c r="J57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1894,28 +1924,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="14">
+      <c r="A59" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="14">
+      <c r="B59" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="14">
+      <c r="C59" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="14">
+      <c r="E59" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="14">
+      <c r="F59" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="14">
+      <c r="G59" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="14">
+      <c r="H59" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1940,28 +1970,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="14">
+      <c r="B61" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="14">
+      <c r="C61" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="14">
+      <c r="D61" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="14">
+      <c r="E61" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="14">
+      <c r="F61" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="14">
+      <c r="G61" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="14">
+      <c r="H61" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="14">
+      <c r="I61" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2049,10 +2079,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="14" t="s">
+      <c r="J64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2096,28 +2126,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="14">
+      <c r="A66" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="14">
+      <c r="B66" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="14">
+      <c r="C66" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="14">
+      <c r="E66" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="14">
+      <c r="F66" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="14">
+      <c r="G66" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="14">
+      <c r="H66" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2142,28 +2172,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="14">
+      <c r="B68" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="14">
+      <c r="C68" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="14">
+      <c r="D68" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="14">
+      <c r="E68" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="14">
+      <c r="F68" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="14">
+      <c r="G68" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="14">
+      <c r="H68" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="14">
+      <c r="I68" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2251,10 +2281,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="14" t="s">
+      <c r="J71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2298,28 +2328,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="14">
+      <c r="A73" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="14">
+      <c r="B73" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="14">
+      <c r="C73" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="14">
+      <c r="E73" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="14">
+      <c r="F73" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="14">
+      <c r="G73" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="14">
+      <c r="H73" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2344,28 +2374,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="14">
+      <c r="B75" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="14">
+      <c r="C75" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="14">
+      <c r="D75" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="14">
+      <c r="E75" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="14">
+      <c r="F75" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="14">
+      <c r="G75" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="14">
+      <c r="H75" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="14">
+      <c r="I75" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2453,10 +2483,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="14" t="s">
+      <c r="J78" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2500,28 +2530,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="14">
+      <c r="A80" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="14">
+      <c r="B80" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="14">
+      <c r="C80" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="14">
+      <c r="E80" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="14">
+      <c r="F80" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="14">
+      <c r="G80" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="14">
+      <c r="H80" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2546,28 +2576,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="14">
+      <c r="B82" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="14">
+      <c r="C82" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="14">
+      <c r="D82" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="14">
+      <c r="E82" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="14">
+      <c r="F82" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="14">
+      <c r="G82" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="14">
+      <c r="H82" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="14">
+      <c r="I82" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2655,10 +2685,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="14" t="s">
+      <c r="J85" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2702,28 +2732,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="14">
+      <c r="A87" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="14">
+      <c r="B87" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="14">
+      <c r="C87" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="14">
+      <c r="E87" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="14">
+      <c r="F87" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="14">
+      <c r="G87" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="14">
+      <c r="H87" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2748,28 +2778,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="14">
+      <c r="B89" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="14">
+      <c r="C89" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="14">
+      <c r="D89" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="14">
+      <c r="E89" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="14">
+      <c r="F89" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="14">
+      <c r="G89" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="14">
+      <c r="H89" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="14">
+      <c r="I89" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2857,10 +2887,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="14" t="s">
+      <c r="J92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2904,28 +2934,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="14">
+      <c r="A94" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="14">
+      <c r="B94" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="14">
+      <c r="C94" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="14">
+      <c r="E94" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="14">
+      <c r="F94" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="14">
+      <c r="G94" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="14">
+      <c r="H94" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2950,28 +2980,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="14">
+      <c r="B96" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="14">
+      <c r="C96" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="14">
+      <c r="D96" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="14">
+      <c r="E96" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="14">
+      <c r="F96" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="14">
+      <c r="G96" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="14">
+      <c r="H96" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="14">
+      <c r="I96" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3059,10 +3089,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="14" t="s">
+      <c r="J99" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3106,28 +3136,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="14">
+      <c r="A101" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="14">
+      <c r="B101" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="14">
+      <c r="C101" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="14">
+      <c r="E101" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="14">
+      <c r="F101" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="14">
+      <c r="G101" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="14">
+      <c r="H101" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3152,28 +3182,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="14">
+      <c r="B103" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="14">
+      <c r="C103" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="14">
+      <c r="D103" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="14">
+      <c r="E103" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="14">
+      <c r="F103" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="14">
+      <c r="G103" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="14">
+      <c r="H103" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="14">
+      <c r="I103" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3261,10 +3291,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="14" t="s">
+      <c r="J106" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3308,28 +3338,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="14">
+      <c r="A108" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="14">
+      <c r="B108" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="14">
+      <c r="C108" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="14">
+      <c r="E108" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="14">
+      <c r="F108" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="14">
+      <c r="G108" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="14">
+      <c r="H108" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3354,28 +3384,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="14">
+      <c r="B110" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="14">
+      <c r="C110" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="14">
+      <c r="D110" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="14">
+      <c r="E110" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="14">
+      <c r="F110" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="14">
+      <c r="G110" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="14">
+      <c r="H110" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="14">
+      <c r="I110" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3463,10 +3493,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="14" t="s">
+      <c r="J113" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3510,28 +3540,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="14">
+      <c r="A115" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="14">
+      <c r="B115" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="14">
+      <c r="C115" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="14">
+      <c r="E115" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="14">
+      <c r="F115" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="14">
+      <c r="G115" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="14">
+      <c r="H115" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3556,28 +3586,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="14">
+      <c r="B117" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="14">
+      <c r="C117" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="14">
+      <c r="D117" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="14">
+      <c r="E117" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="14">
+      <c r="F117" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="14">
+      <c r="G117" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="14">
+      <c r="H117" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="14">
+      <c r="I117" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3665,10 +3695,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="14" t="s">
+      <c r="J120" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3712,28 +3742,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="14">
+      <c r="A122" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="14">
+      <c r="B122" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="14">
+      <c r="C122" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="14">
+      <c r="E122" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="14">
+      <c r="F122" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="14">
+      <c r="G122" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="14">
+      <c r="H122" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3758,28 +3788,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="14">
+      <c r="B124" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="14">
+      <c r="C124" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="14">
+      <c r="D124" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="14">
+      <c r="E124" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="14">
+      <c r="F124" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="14">
+      <c r="G124" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="14">
+      <c r="H124" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="14">
+      <c r="I124" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3867,10 +3897,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="14" t="s">
+      <c r="J127" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3914,28 +3944,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="14">
+      <c r="A129" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="14">
+      <c r="B129" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="14">
+      <c r="C129" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="14">
+      <c r="E129" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="14">
+      <c r="F129" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="14">
+      <c r="G129" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="14">
+      <c r="H129" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3960,28 +3990,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="14">
+      <c r="B131" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="14">
+      <c r="C131" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="14">
+      <c r="D131" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="14">
+      <c r="E131" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="14">
+      <c r="F131" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="14">
+      <c r="G131" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="14">
+      <c r="H131" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="14">
+      <c r="I131" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4069,10 +4099,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="14" t="s">
+      <c r="J134" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4116,28 +4146,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="14">
+      <c r="A136" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="14">
+      <c r="B136" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="14">
+      <c r="C136" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="14">
+      <c r="E136" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="14">
+      <c r="F136" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="14">
+      <c r="G136" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="14">
+      <c r="H136" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4162,28 +4192,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="14">
+      <c r="B138" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="14">
+      <c r="C138" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="14">
+      <c r="D138" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="14">
+      <c r="E138" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="14">
+      <c r="F138" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="14">
+      <c r="G138" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="14">
+      <c r="H138" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="14">
+      <c r="I138" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4271,10 +4301,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="14" t="s">
+      <c r="J141" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4318,28 +4348,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="14">
+      <c r="A143" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="14">
+      <c r="B143" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="14">
+      <c r="C143" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="14">
+      <c r="E143" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="14">
+      <c r="F143" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="14">
+      <c r="G143" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="14">
+      <c r="H143" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4364,28 +4394,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="14">
+      <c r="B145" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="14">
+      <c r="C145" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="14">
+      <c r="D145" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="14">
+      <c r="E145" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="14">
+      <c r="F145" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="14">
+      <c r="G145" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="14">
+      <c r="H145" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="14">
+      <c r="I145" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4502,10 +4532,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="14" t="s">
+      <c r="J149" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4549,28 +4579,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="14">
+      <c r="A151" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="14">
+      <c r="B151" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="14">
+      <c r="C151" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="14">
+      <c r="E151" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="14">
+      <c r="F151" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="14">
+      <c r="G151" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="14">
+      <c r="H151" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4595,28 +4625,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="14">
+      <c r="B153" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="14">
+      <c r="C153" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="14">
+      <c r="D153" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="14">
+      <c r="E153" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="14">
+      <c r="F153" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="14">
+      <c r="G153" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="14">
+      <c r="H153" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="14">
+      <c r="I153" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4704,10 +4734,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="14" t="s">
+      <c r="J156" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4751,28 +4781,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="14">
+      <c r="A158" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="14">
+      <c r="B158" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="14">
+      <c r="C158" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="14">
+      <c r="E158" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="14">
+      <c r="F158" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="14">
+      <c r="G158" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="14">
+      <c r="H158" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4797,28 +4827,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="14">
+      <c r="B160" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="14">
+      <c r="C160" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="14">
+      <c r="D160" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="14">
+      <c r="E160" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="14">
+      <c r="F160" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="14">
+      <c r="G160" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="14">
+      <c r="H160" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="14">
+      <c r="I160" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4906,10 +4936,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="14" t="s">
+      <c r="J163" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4953,28 +4983,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="14">
+      <c r="A165" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="14">
+      <c r="B165" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="14">
+      <c r="C165" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="14">
+      <c r="E165" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="14">
+      <c r="F165" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="14">
+      <c r="G165" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="14">
+      <c r="H165" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4999,28 +5029,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="14">
+      <c r="B167" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="14">
+      <c r="C167" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="14">
+      <c r="D167" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="14">
+      <c r="E167" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="14">
+      <c r="F167" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="14">
+      <c r="G167" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="14">
+      <c r="H167" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="14">
+      <c r="I167" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5108,10 +5138,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="14" t="s">
+      <c r="J170" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5155,28 +5185,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="14">
+      <c r="A172" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="14">
+      <c r="B172" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="14">
+      <c r="C172" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="14">
+      <c r="E172" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="14">
+      <c r="F172" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="14">
+      <c r="G172" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="14">
+      <c r="H172" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5201,28 +5231,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="14">
+      <c r="B174" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="14">
+      <c r="C174" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="14">
+      <c r="D174" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="14">
+      <c r="E174" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="14">
+      <c r="F174" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="14">
+      <c r="G174" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="14">
+      <c r="H174" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="14">
+      <c r="I174" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5310,10 +5340,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="14" t="s">
+      <c r="J177" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5357,28 +5387,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="14">
+      <c r="A179" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="14">
+      <c r="B179" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="14">
+      <c r="C179" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="14">
+      <c r="E179" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="14">
+      <c r="F179" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="14">
+      <c r="G179" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="14">
+      <c r="H179" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5403,28 +5433,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="14">
+      <c r="B181" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="14">
+      <c r="C181" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="14">
+      <c r="D181" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="14">
+      <c r="E181" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="14">
+      <c r="F181" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="14">
+      <c r="G181" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="14">
+      <c r="H181" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="14">
+      <c r="I181" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5512,10 +5542,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="14" t="s">
+      <c r="J184" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5559,28 +5589,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="14">
+      <c r="A186" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="14">
+      <c r="B186" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="14">
+      <c r="C186" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="14">
+      <c r="E186" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="14">
+      <c r="F186" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="14">
+      <c r="G186" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="14">
+      <c r="H186" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5605,28 +5635,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="14">
+      <c r="B188" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="14">
+      <c r="C188" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="14">
+      <c r="D188" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="14">
+      <c r="E188" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="14">
+      <c r="F188" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="14">
+      <c r="G188" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="14">
+      <c r="H188" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="14">
+      <c r="I188" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5743,10 +5773,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="14" t="s">
+      <c r="J192" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5790,28 +5820,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="14">
+      <c r="A194" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="14">
+      <c r="B194" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="14">
+      <c r="C194" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="14">
+      <c r="E194" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="14">
+      <c r="F194" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="14">
+      <c r="G194" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="14">
+      <c r="H194" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5836,28 +5866,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="14">
+      <c r="B196" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="14">
+      <c r="C196" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="14">
+      <c r="D196" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="14">
+      <c r="E196" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="14">
+      <c r="F196" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="14">
+      <c r="G196" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="14">
+      <c r="H196" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="14">
+      <c r="I196" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5945,10 +5975,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="14" t="s">
+      <c r="J199" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5992,28 +6022,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="14">
+      <c r="A201" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="14">
+      <c r="B201" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="14">
+      <c r="C201" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="14">
+      <c r="E201" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="14">
+      <c r="F201" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="14">
+      <c r="G201" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="14">
+      <c r="H201" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6038,28 +6068,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="14">
+      <c r="B203" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="14">
+      <c r="C203" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="14">
+      <c r="D203" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="14">
+      <c r="E203" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="14">
+      <c r="F203" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="14">
+      <c r="G203" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="14">
+      <c r="H203" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="14">
+      <c r="I203" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6147,10 +6177,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="14" t="s">
+      <c r="J206" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6194,28 +6224,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="14">
+      <c r="A208" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="14">
+      <c r="B208" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="14">
+      <c r="C208" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="14">
+      <c r="E208" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="14">
+      <c r="F208" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="14">
+      <c r="G208" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="14">
+      <c r="H208" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6240,28 +6270,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="14">
+      <c r="B210" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="14">
+      <c r="C210" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="14">
+      <c r="D210" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="14">
+      <c r="E210" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="14">
+      <c r="F210" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="14">
+      <c r="G210" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="14">
+      <c r="H210" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="14">
+      <c r="I210" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6378,10 +6408,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="14" t="s">
+      <c r="J214" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6425,28 +6455,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="14">
+      <c r="A216" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="14">
+      <c r="B216" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="14">
+      <c r="C216" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="14">
+      <c r="E216" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="14">
+      <c r="F216" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="14">
+      <c r="G216" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="14">
+      <c r="H216" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6471,28 +6501,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="14">
+      <c r="B218" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="14">
+      <c r="C218" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="14">
+      <c r="D218" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="14">
+      <c r="E218" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="14">
+      <c r="F218" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="14">
+      <c r="G218" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="14">
+      <c r="H218" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="14">
+      <c r="I218" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6580,10 +6610,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="14" t="s">
+      <c r="J221" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6627,28 +6657,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="14">
+      <c r="A223" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="14">
+      <c r="B223" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="14">
+      <c r="C223" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="14">
+      <c r="E223" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="14">
+      <c r="F223" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="14">
+      <c r="G223" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="14">
+      <c r="H223" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6673,28 +6703,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="14">
+      <c r="B225" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="14">
+      <c r="C225" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="14">
+      <c r="D225" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="14">
+      <c r="E225" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="14">
+      <c r="F225" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="14">
+      <c r="G225" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="14">
+      <c r="H225" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="14">
+      <c r="I225" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6782,10 +6812,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="14" t="s">
+      <c r="J228" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6829,28 +6859,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="14">
+      <c r="A230" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="14">
+      <c r="B230" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="14">
+      <c r="C230" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="14">
+      <c r="E230" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="14">
+      <c r="F230" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="14">
+      <c r="G230" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="14">
+      <c r="H230" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6875,28 +6905,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="14">
+      <c r="B232" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="14">
+      <c r="C232" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="14">
+      <c r="D232" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="14">
+      <c r="E232" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="14">
+      <c r="F232" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="14">
+      <c r="G232" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="14">
+      <c r="H232" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="14">
+      <c r="I232" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6984,10 +7014,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="14" t="s">
+      <c r="J235" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7031,28 +7061,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="14">
+      <c r="A237" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="14">
+      <c r="B237" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="14">
+      <c r="C237" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="14">
+      <c r="E237" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="14">
+      <c r="F237" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="14">
+      <c r="G237" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="14">
+      <c r="H237" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7077,28 +7107,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="14">
+      <c r="B239" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="14">
+      <c r="C239" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="14">
+      <c r="D239" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="14">
+      <c r="E239" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="14">
+      <c r="F239" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="14">
+      <c r="G239" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="14">
+      <c r="H239" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="14">
+      <c r="I239" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7186,10 +7216,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="14" t="s">
+      <c r="J242" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7233,28 +7263,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="14">
+      <c r="A244" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="14">
+      <c r="B244" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="14">
+      <c r="C244" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="14">
+      <c r="E244" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="14">
+      <c r="F244" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="14">
+      <c r="G244" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="14">
+      <c r="H244" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7279,28 +7309,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="14">
+      <c r="B246" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="14">
+      <c r="C246" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="14">
+      <c r="D246" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="14">
+      <c r="E246" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="14">
+      <c r="F246" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="14">
+      <c r="G246" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="14">
+      <c r="H246" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="14">
+      <c r="I246" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7388,10 +7418,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="14" t="s">
+      <c r="J249" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7435,28 +7465,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="14">
+      <c r="A251" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="14">
+      <c r="B251" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="14">
+      <c r="C251" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="14">
+      <c r="E251" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="14">
+      <c r="F251" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="14">
+      <c r="G251" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="14">
+      <c r="H251" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7481,28 +7511,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="14">
+      <c r="B253" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="14">
+      <c r="C253" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="14">
+      <c r="D253" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="14">
+      <c r="E253" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="14">
+      <c r="F253" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="14">
+      <c r="G253" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="14">
+      <c r="H253" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="14">
+      <c r="I253" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7619,10 +7649,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="14" t="s">
+      <c r="J257" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7666,28 +7696,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="14">
+      <c r="A259" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="14">
+      <c r="B259" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="14">
+      <c r="C259" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="14">
+      <c r="E259" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="14">
+      <c r="F259" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="14">
+      <c r="G259" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="14">
+      <c r="H259" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7712,28 +7742,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="14">
+      <c r="B261" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="14">
+      <c r="C261" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="14">
+      <c r="D261" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="14">
+      <c r="E261" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="14">
+      <c r="F261" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="14">
+      <c r="G261" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="14">
+      <c r="H261" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="14">
+      <c r="I261" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7821,10 +7851,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="14" t="s">
+      <c r="J264" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7868,28 +7898,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="14">
+      <c r="A266" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="14">
+      <c r="B266" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="14">
+      <c r="C266" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="14">
+      <c r="E266" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="14">
+      <c r="F266" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="14">
+      <c r="G266" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="14">
+      <c r="H266" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7914,28 +7944,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="14">
+      <c r="B268" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="14">
+      <c r="C268" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="14">
+      <c r="D268" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="14">
+      <c r="E268" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="14">
+      <c r="F268" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="14">
+      <c r="G268" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="14">
+      <c r="H268" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="14">
+      <c r="I268" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8023,10 +8053,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="14" t="s">
+      <c r="J271" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8070,28 +8100,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="14">
+      <c r="A273" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="14">
+      <c r="B273" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="14">
+      <c r="C273" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="14">
+      <c r="E273" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="14">
+      <c r="F273" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="14">
+      <c r="G273" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="14">
+      <c r="H273" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8116,28 +8146,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="14">
+      <c r="B275" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="14">
+      <c r="C275" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="14">
+      <c r="D275" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="14">
+      <c r="E275" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="14">
+      <c r="F275" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="14">
+      <c r="G275" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="14">
+      <c r="H275" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="14">
+      <c r="I275" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8225,10 +8255,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="14" t="s">
+      <c r="J278" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8272,28 +8302,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="14">
+      <c r="A280" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="14">
+      <c r="B280" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="14">
+      <c r="C280" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="14">
+      <c r="E280" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="14">
+      <c r="F280" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="14">
+      <c r="G280" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="14">
+      <c r="H280" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8318,28 +8348,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="14">
+      <c r="B282" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="14">
+      <c r="C282" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="14">
+      <c r="D282" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="14">
+      <c r="E282" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="14">
+      <c r="F282" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="14">
+      <c r="G282" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="14">
+      <c r="H282" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="14">
+      <c r="I282" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8427,10 +8457,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="14" t="s">
+      <c r="J285" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8474,28 +8504,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="14">
+      <c r="A287" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="14">
+      <c r="B287" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="14">
+      <c r="C287" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="14">
+      <c r="E287" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="14">
+      <c r="F287" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="14">
+      <c r="G287" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="14">
+      <c r="H287" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8520,28 +8550,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="14">
+      <c r="B289" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="14">
+      <c r="C289" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="14">
+      <c r="D289" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="14">
+      <c r="E289" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="14">
+      <c r="F289" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="14">
+      <c r="G289" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="14">
+      <c r="H289" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="14">
+      <c r="I289" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8629,10 +8659,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="14" t="s">
+      <c r="J292" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8676,28 +8706,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="14">
+      <c r="A294" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="14">
+      <c r="B294" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="14">
+      <c r="C294" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="14">
+      <c r="E294" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="14">
+      <c r="F294" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="14">
+      <c r="G294" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="14">
+      <c r="H294" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8722,28 +8752,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="14">
+      <c r="B296" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="14">
+      <c r="C296" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="14">
+      <c r="D296" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="14">
+      <c r="E296" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="14">
+      <c r="F296" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="14">
+      <c r="G296" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="14">
+      <c r="H296" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="14">
+      <c r="I296" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8860,10 +8890,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="14" t="s">
+      <c r="J300" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8907,28 +8937,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="14">
+      <c r="A302" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="14">
+      <c r="B302" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="14">
+      <c r="C302" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="14">
+      <c r="E302" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="14">
+      <c r="F302" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="14">
+      <c r="G302" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="14">
+      <c r="H302" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8953,28 +8983,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="14">
+      <c r="B304" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="14">
+      <c r="C304" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="14">
+      <c r="D304" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="14">
+      <c r="E304" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="14">
+      <c r="F304" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="14">
+      <c r="G304" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="14">
+      <c r="H304" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="14">
+      <c r="I304" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9091,10 +9121,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="14" t="s">
+      <c r="J308" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9138,28 +9168,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="14">
+      <c r="A310" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="14">
+      <c r="B310" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="14">
+      <c r="C310" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="14">
+      <c r="E310" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="14">
+      <c r="F310" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="14">
+      <c r="G310" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="14">
+      <c r="H310" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9184,28 +9214,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="14">
+      <c r="B312" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="14">
+      <c r="C312" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="14">
+      <c r="D312" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="14">
+      <c r="E312" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="14">
+      <c r="F312" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="14">
+      <c r="G312" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="14">
+      <c r="H312" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="14">
+      <c r="I312" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9293,10 +9323,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="14" t="s">
+      <c r="J315" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9340,28 +9370,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="14">
+      <c r="A317" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="14">
+      <c r="B317" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="14">
+      <c r="C317" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="14">
+      <c r="E317" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="14">
+      <c r="F317" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="14">
+      <c r="G317" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="14">
+      <c r="H317" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9386,28 +9416,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="14">
+      <c r="B319" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="14">
+      <c r="C319" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="14">
+      <c r="D319" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="14">
+      <c r="E319" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="14">
+      <c r="F319" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="14">
+      <c r="G319" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="14">
+      <c r="H319" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="14">
+      <c r="I319" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9495,10 +9525,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="14" t="s">
+      <c r="J322" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9542,28 +9572,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="14">
+      <c r="A324" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="14">
+      <c r="B324" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="14">
+      <c r="C324" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="14">
+      <c r="E324" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="14">
+      <c r="F324" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="14">
+      <c r="G324" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="14">
+      <c r="H324" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9588,28 +9618,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="14">
+      <c r="B326" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="14">
+      <c r="C326" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="14">
+      <c r="D326" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="14">
+      <c r="E326" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="14">
+      <c r="F326" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="14">
+      <c r="G326" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="14">
+      <c r="H326" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="14">
+      <c r="I326" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9668,10 +9698,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="14" t="s">
+      <c r="J328" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9715,28 +9745,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="14">
+      <c r="A330" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="14">
+      <c r="B330" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="14">
+      <c r="C330" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="14">
+      <c r="E330" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="14">
+      <c r="F330" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="14">
+      <c r="G330" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="14">
+      <c r="H330" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9761,28 +9791,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="14">
+      <c r="B332" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="14">
+      <c r="C332" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="14">
+      <c r="D332" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="14">
+      <c r="E332" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="14">
+      <c r="F332" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="14">
+      <c r="G332" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="14">
+      <c r="H332" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="14">
+      <c r="I332" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9870,10 +9900,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="14" t="s">
+      <c r="J335" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9917,28 +9947,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="14">
+      <c r="A337" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="14">
+      <c r="B337" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="14">
+      <c r="C337" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="14">
+      <c r="E337" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="14">
+      <c r="F337" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="14">
+      <c r="G337" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="14">
+      <c r="H337" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9963,28 +9993,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="14">
+      <c r="B339" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="14">
+      <c r="C339" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="14">
+      <c r="D339" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="14">
+      <c r="E339" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="14">
+      <c r="F339" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="14">
+      <c r="G339" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="14">
+      <c r="H339" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="14">
+      <c r="I339" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -10043,10 +10073,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="14" t="s">
+      <c r="J341" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
